--- a/simStudy/simParamsSummary.xlsx
+++ b/simStudy/simParamsSummary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caitl\Documents\Postdoc\epidemicBCM\simulationStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caitl\Documents\Postdoc\epidemicBCM\simStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E140772-ABCB-4933-9E2A-4C194E8F5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB18F413-425E-4B93-9045-AD9285C87EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{172EBA67-DF58-4CEE-BF06-48D6A2384BDC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>IType</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>rateI</t>
+  </si>
+  <si>
+    <t>epiSize</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -167,12 +176,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,22 +495,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564B3836-2B17-48DB-8114-869B4A6EAD37}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="3"/>
+    <col min="5" max="6" width="9.5546875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -512,29 +520,32 @@
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -544,20 +555,23 @@
       <c r="C2" s="4">
         <v>14</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.36</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
         <v>0.66</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1E-4</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -567,21 +581,24 @@
       <c r="C3" s="4">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.36</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>0.66</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -590,21 +607,24 @@
       <c r="C4" s="3">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.42</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="7">
         <v>0.1429</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0.7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -613,20 +633,23 @@
       <c r="C5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.42</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="7">
         <v>0.1429</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>0.78</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -636,22 +659,25 @@
       <c r="C6" s="5">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.36</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>0.7</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -661,23 +687,26 @@
       <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.36</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>0.7</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -686,24 +715,27 @@
       <c r="C8" s="3">
         <v>14</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7">
         <v>0.42</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="7">
         <v>0.1429</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>0.75</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -712,23 +744,26 @@
       <c r="C9" s="3">
         <v>30</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.42</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="7">
         <v>0.1429</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>0.85</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -738,19 +773,22 @@
       <c r="C10" s="5">
         <v>14</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.36</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="2">
+      <c r="J10" s="5"/>
+      <c r="K10" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -760,20 +798,23 @@
       <c r="C11" s="5">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.36</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="2">
+      <c r="J11" s="5"/>
+      <c r="K11" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -782,18 +823,21 @@
       <c r="C12" s="3">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7">
         <v>0.42</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="7">
         <v>0.1429</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -802,14 +846,173 @@
       <c r="C13" s="3">
         <v>30</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7">
         <v>0.42</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="7">
         <v>0.1429</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13">
         <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.1429</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.1429</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.1429</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.1429</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.1429</v>
+      </c>
+      <c r="K18">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.1429</v>
+      </c>
+      <c r="K19">
+        <v>2.2000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1031,182 +1234,182 @@
         <v>334.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="6">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
         <v>293</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>291</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>305</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>312</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>291</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>282</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
         <v>295.66666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6">
         <v>282</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>289</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>318</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>281</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>283</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>326</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f t="shared" si="0"/>
         <v>296.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
         <v>341</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>339</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>342</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>356</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>367</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>335</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="0"/>
         <v>346.66666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
         <v>261</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>315</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>295</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>303</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>305</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>291</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6">
         <v>259</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>252</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>297</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>234</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>258</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>282</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f t="shared" si="0"/>
         <v>263.66666666666669</v>
       </c>
@@ -1321,92 +1524,92 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>14</v>
-      </c>
-      <c r="N20" s="7" t="e">
+      <c r="D20" s="6">
+        <v>14</v>
+      </c>
+      <c r="N20" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>7</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="21" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
-        <v>30</v>
-      </c>
-      <c r="N21" s="7" t="e">
+      <c r="D21" s="6">
+        <v>30</v>
+      </c>
+      <c r="N21" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>7</v>
-      </c>
-      <c r="N22" s="7" t="e">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>7</v>
+      </c>
+      <c r="N22" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>9</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7">
-        <v>14</v>
-      </c>
-      <c r="N23" s="7" t="e">
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>14</v>
+      </c>
+      <c r="N23" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>10</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7">
-        <v>30</v>
-      </c>
-      <c r="N24" s="7" t="e">
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>30</v>
+      </c>
+      <c r="N24" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1611,200 +1814,200 @@
         <v>338.14285714285717</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>6</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7" t="s">
+    <row r="32" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="6">
+        <v>14</v>
+      </c>
+      <c r="E32" s="6">
         <v>286</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>281</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>261</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>312</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>301</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>302</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>277</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <f t="shared" si="2"/>
         <v>288.57142857142856</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="7" t="s">
+    <row r="33" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7">
-        <v>30</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="6">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6">
         <v>405</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>378</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>411</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>423</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>395</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>346</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>397</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <f t="shared" si="2"/>
         <v>393.57142857142856</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="34" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>8</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7">
-        <v>7</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6">
         <v>357</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>280</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>317</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>334</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>308</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>311</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>315</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <f t="shared" si="2"/>
         <v>317.42857142857144</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row r="35" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>9</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7">
-        <v>14</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>14</v>
+      </c>
+      <c r="E35" s="6">
         <v>298</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>268</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>318</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>282</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>310</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>287</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>289</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <f t="shared" si="2"/>
         <v>293.14285714285717</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="36" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>10</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7">
-        <v>30</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6">
         <v>360</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>328</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>382</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>357</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>384</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>408</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <v>353</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <f t="shared" si="2"/>
         <v>367.42857142857144</v>
       </c>
@@ -1879,73 +2082,73 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>6</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="7" t="s">
+    <row r="44" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>7</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D44" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="D45" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>8</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>9</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>10</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="B48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6">
         <v>30</v>
       </c>
     </row>
